--- a/biology/Zoologie/Colibri_de_Julie/Colibri_de_Julie.xlsx
+++ b/biology/Zoologie/Colibri_de_Julie/Colibri_de_Julie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorestes julie
 Le Colibri de Julie ou Colibri Julie (Chlorestes julie) est une espèce de colibris de la sous-famille des Trochilinae.
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était autrefois placée dans le genre Damophila, sous le nom scientifique de Damophila julie, mais comme ce genre existait déjà dans l'ordre des lépidoptères, elle fut ultérieurement incluse dans le genre monospécifique Juliamyia, avant d'être placée dans le genre Chlorestes.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides ou sèches de basses altitude mais aussi les anciennes forêts lourdement dégradées.
 </t>
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colibri de Julie se trouve en Colombie, au Panama, en Équateur et au Pérou.
 </t>
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
 Juliamyia julie feliciana (Lesson, 1844) ;
